--- a/VersionRecords/Version 5.1.5/版本Bug和特性计划及评审表v5.1.5_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.5/版本Bug和特性计划及评审表v5.1.5_马丁组.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本5.1.5 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="定时器" sheetId="10" r:id="rId2"/>
     <sheet name="上线执行顺序" sheetId="8" r:id="rId3"/>
     <sheet name="配置文件（测试环境）" sheetId="9" r:id="rId4"/>
@@ -22,7 +22,7 @@
     <sheet name="数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本X.X.X 新特性|Fix Bug'!$A$1:$U$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.5 新特性|Fix Bug'!$A$1:$U$20</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="91">
   <si>
     <t>No</t>
   </si>
@@ -304,11 +304,39 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>房态图筛选条件记录</t>
+    <t>徐文瑞</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>徐文瑞</t>
+    <t>李萌</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房态图】每个小区/大楼栏，新增“入住率”数据统计，显示该小区/大楼此时此刻的入住率</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房态图】每个小区栏，显示房源信息，格式：合租X套X间，整租X套，共计X间</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房态图】信息页内容显示调整</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房态图】分散式合租房间，如果填写了房间别名，房源图标上显示别名，不显示ABCD</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房态图】房态图文案调整</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩淑芳</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房态图】房态图筛选条件记录</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -969,6 +997,15 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -995,15 +1032,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1391,31 +1419,30 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="33.875" style="33" customWidth="1"/>
-    <col min="5" max="5" width="15" style="32" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="33" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="32" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="32" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="32" customWidth="1"/>
-    <col min="15" max="15" width="10" style="33" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="33" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="33" customWidth="1"/>
-    <col min="18" max="18" width="12" style="34" customWidth="1"/>
+    <col min="2" max="3" width="9.75" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.875" style="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.75" style="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.25" style="34" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17" style="34" customWidth="1"/>
     <col min="20" max="20" width="14.125" style="34" customWidth="1"/>
-    <col min="21" max="21" width="41.875" style="33" customWidth="1"/>
+    <col min="21" max="21" width="5.75" style="33" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.875" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
@@ -1485,7 +1512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1567,14 +1594,14 @@
         <v>42711</v>
       </c>
       <c r="K3" s="38"/>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="77" t="s">
         <v>80</v>
       </c>
       <c r="M3" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="87" t="s">
-        <v>81</v>
+      <c r="N3" s="78" t="s">
+        <v>83</v>
       </c>
       <c r="O3" s="47"/>
       <c r="P3" s="39"/>
@@ -1585,7 +1612,7 @@
       <c r="U3" s="55"/>
       <c r="V3" s="54"/>
     </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="36">
         <v>3</v>
       </c>
@@ -1595,13 +1622,13 @@
       <c r="C4" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="88" t="s">
-        <v>82</v>
+      <c r="D4" s="79" t="s">
+        <v>90</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="78" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="38" t="s">
@@ -1617,13 +1644,13 @@
         <v>42711</v>
       </c>
       <c r="K4" s="38"/>
-      <c r="L4" s="86" t="s">
-        <v>83</v>
+      <c r="L4" s="77" t="s">
+        <v>82</v>
       </c>
       <c r="M4" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="78" t="s">
         <v>81</v>
       </c>
       <c r="O4" s="47"/>
@@ -1635,21 +1662,47 @@
       <c r="U4" s="53"/>
       <c r="V4" s="54"/>
     </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="39">
+        <v>42711</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="39">
+        <v>42711</v>
+      </c>
       <c r="K5" s="38"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
+      <c r="L5" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="78" t="s">
+        <v>81</v>
+      </c>
       <c r="O5" s="47"/>
       <c r="P5" s="39"/>
       <c r="Q5" s="47"/>
@@ -1659,21 +1712,47 @@
       <c r="U5" s="55"/>
       <c r="V5" s="54"/>
     </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
+    <row r="6" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="39">
+        <v>42711</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="39">
+        <v>42711</v>
+      </c>
       <c r="K6" s="38"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
+      <c r="L6" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="78" t="s">
+        <v>81</v>
+      </c>
       <c r="O6" s="47"/>
       <c r="P6" s="39"/>
       <c r="Q6" s="47"/>
@@ -1684,20 +1763,46 @@
       <c r="V6" s="54"/>
     </row>
     <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39"/>
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="39">
+        <v>42711</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="39">
+        <v>42711</v>
+      </c>
       <c r="K7" s="38"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
+      <c r="L7" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="78" t="s">
+        <v>81</v>
+      </c>
       <c r="O7" s="47"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="47"/>
@@ -1707,21 +1812,47 @@
       <c r="U7" s="55"/>
       <c r="V7" s="54"/>
     </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="39">
+        <v>42711</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="39">
+        <v>42711</v>
+      </c>
       <c r="K8" s="38"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
+      <c r="L8" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="78" t="s">
+        <v>81</v>
+      </c>
       <c r="O8" s="47"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="47"/>
@@ -1732,20 +1863,46 @@
       <c r="V8" s="54"/>
     </row>
     <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="A9" s="36">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="39">
+        <v>42711</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="39">
+        <v>42711</v>
+      </c>
       <c r="K9" s="38"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
+      <c r="L9" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="78" t="s">
+        <v>81</v>
+      </c>
       <c r="O9" s="47"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="47"/>
@@ -5369,7 +5526,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5389,7 +5546,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5565,19 +5722,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5615,8 +5772,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5628,8 +5785,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5641,8 +5798,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5654,8 +5811,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5667,8 +5824,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5680,8 +5837,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5693,8 +5850,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5706,8 +5863,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5768,36 +5925,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6082,36 +6239,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6396,36 +6553,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6712,36 +6869,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
